--- a/project3_req_checklist.xlsx
+++ b/project3_req_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin Tran\project_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5AE376-E866-4AFD-96AB-4FD4B9A608A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD699EE-9AB2-436E-804A-426D74C7EEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3675" windowWidth="11550" windowHeight="12060" xr2:uid="{7DAC2924-F08F-4315-8F85-E31847044D06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{7DAC2924-F08F-4315-8F85-E31847044D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,13 +195,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,10 +531,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -593,11 +593,11 @@
       <c r="B10" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -615,16 +615,16 @@
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -636,6 +636,7 @@
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1" xr:uid="{1825F81B-6E54-443A-A858-2E5FD7B62779}"/>
     <hyperlink ref="B16" r:id="rId2" xr:uid="{CB797BAA-8BCC-449F-9ED1-AE836C0F8BA2}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{C9883CF1-5E1C-4550-9DDF-0818F0418FC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project3_req_checklist.xlsx
+++ b/project3_req_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin Tran\project_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD699EE-9AB2-436E-804A-426D74C7EEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47166668-9199-4EC0-B83E-315C35FB9037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{7DAC2924-F08F-4315-8F85-E31847044D06}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Project 3 Requirements Checklist </t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Additional Chess API</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Google Charts ?</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +554,9 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -572,7 +580,9 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">

--- a/project3_req_checklist.xlsx
+++ b/project3_req_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin Tran\project_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47166668-9199-4EC0-B83E-315C35FB9037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8E470B-D0B0-475B-94EB-44DE808F876C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{7DAC2924-F08F-4315-8F85-E31847044D06}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Project 3 Requirements Checklist </t>
   </si>
@@ -96,7 +96,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Google Charts ?</t>
+    <t>To be fulfilled by Thursday September 30th 2021</t>
+  </si>
+  <si>
+    <t>FullChart</t>
   </si>
 </sst>
 </file>
@@ -574,14 +577,16 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/project3_req_checklist.xlsx
+++ b/project3_req_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin Tran\project_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8E470B-D0B0-475B-94EB-44DE808F876C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5230B4C-F957-4521-AEDB-473358BD2F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{7DAC2924-F08F-4315-8F85-E31847044D06}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t xml:space="preserve">Project 3 Requirements Checklist </t>
   </si>
@@ -96,10 +96,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>To be fulfilled by Thursday September 30th 2021</t>
-  </si>
-  <si>
     <t>FullChart</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,9 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -578,7 +580,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -586,20 +588,24 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">

--- a/project3_req_checklist.xlsx
+++ b/project3_req_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin Tran\project_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5230B4C-F957-4521-AEDB-473358BD2F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB046C-9030-415E-932F-4B65078ED228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{7DAC2924-F08F-4315-8F85-E31847044D06}"/>
+    <workbookView xWindow="40050" yWindow="3120" windowWidth="11550" windowHeight="12060" xr2:uid="{7DAC2924-F08F-4315-8F85-E31847044D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t xml:space="preserve">Project 3 Requirements Checklist </t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>FullChart</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -573,7 +570,9 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -596,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -604,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
